--- a/tabla_icarhs.xlsx
+++ b/tabla_icarhs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\AGUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF8C2C0-5A82-4257-B6BF-2C9745864351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B28CFE7-BDB9-4365-B461-7C6509F5EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{E7F89A8C-CD6C-467A-8E64-FA7EEED09E75}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>1.1499999999999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>6.5</v>
       </c>
       <c r="E25">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
